--- a/apps/probable-system/assets/data_files/db.xlsx
+++ b/apps/probable-system/assets/data_files/db.xlsx
@@ -11,15 +11,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>random-id</t>
+  </si>
+  <si>
+    <t>random-test-id</t>
+  </si>
+  <si>
+    <t>test-action</t>
+  </si>
+  <si>
+    <t>random description</t>
+  </si>
+  <si>
+    <t>random_runner_name</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>random data</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -37,9 +63,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,7 +285,31 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/apps/probable-system/assets/data_files/db.xlsx
+++ b/apps/probable-system/assets/data_files/db.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="test_step_table" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/apps/probable-system/assets/data_files/db.xlsx
+++ b/apps/probable-system/assets/data_files/db.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="test_step_table" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="test_case_table" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>random-id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <si>
+    <t>random-step-id</t>
   </si>
   <si>
     <t>random-test-id</t>
@@ -32,18 +33,52 @@
   </si>
   <si>
     <t>random data</t>
+  </si>
+  <si>
+    <t>random-step-2-id</t>
+  </si>
+  <si>
+    <t>test-action-2</t>
+  </si>
+  <si>
+    <t>random description 2</t>
+  </si>
+  <si>
+    <t>random_runner_2_name</t>
+  </si>
+  <si>
+    <t>random data 2</t>
+  </si>
+  <si>
+    <t>random-step-3-id</t>
+  </si>
+  <si>
+    <t>random description 3</t>
+  </si>
+  <si>
+    <t>random_runner_3_name</t>
+  </si>
+  <si>
+    <t>random data 3</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>random-step-id,random-step-2-id,random-step-3-id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -63,11 +98,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -79,6 +117,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -309,6 +351,84 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="44.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/apps/probable-system/assets/data_files/db.xlsx
+++ b/apps/probable-system/assets/data_files/db.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="test_step_table" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="test_case_table" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="test_action_table" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="test_case_table" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,60 +13,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>random-step-id</t>
-  </si>
-  <si>
-    <t>random-test-id</t>
-  </si>
-  <si>
-    <t>test-action</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+  <si>
+    <t>random-step-1-id</t>
+  </si>
+  <si>
+    <t>random-test-id-1</t>
+  </si>
+  <si>
+    <t>random-action-id-1</t>
   </si>
   <si>
     <t>random description</t>
   </si>
   <si>
-    <t>random_runner_name</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>random data</t>
+    <t>random data 1</t>
   </si>
   <si>
     <t>random-step-2-id</t>
   </si>
   <si>
-    <t>test-action-2</t>
+    <t>random-action-id-2</t>
   </si>
   <si>
     <t>random description 2</t>
   </si>
   <si>
-    <t>random_runner_2_name</t>
-  </si>
-  <si>
     <t>random data 2</t>
   </si>
   <si>
     <t>random-step-3-id</t>
   </si>
   <si>
+    <t>random-action-id-3</t>
+  </si>
+  <si>
     <t>random description 3</t>
   </si>
   <si>
-    <t>random_runner_3_name</t>
-  </si>
-  <si>
     <t>random data 3</t>
   </si>
   <si>
+    <t>random action 1 name</t>
+  </si>
+  <si>
+    <t>random action description 1</t>
+  </si>
+  <si>
+    <t>random_action_runner_1_name</t>
+  </si>
+  <si>
+    <t>random action 2 name</t>
+  </si>
+  <si>
+    <t>random action description 2</t>
+  </si>
+  <si>
+    <t>random_action_runner_2_name</t>
+  </si>
+  <si>
+    <t>random action 3 name</t>
+  </si>
+  <si>
+    <t>random action description 3</t>
+  </si>
+  <si>
+    <t>random_action_runner_3_name</t>
+  </si>
+  <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>random-step-id,random-step-2-id,random-step-3-id</t>
   </si>
 </sst>
 </file>
@@ -121,6 +137,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -327,6 +347,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.57"/>
+    <col customWidth="1" min="3" max="3" width="17.14"/>
+    <col customWidth="1" min="4" max="4" width="18.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -338,63 +363,45 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -412,21 +419,75 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="44.0"/>
+    <col customWidth="1" min="1" max="1" width="17.14"/>
+    <col customWidth="1" min="2" max="2" width="18.57"/>
+    <col customWidth="1" min="3" max="3" width="24.57"/>
+    <col customWidth="1" min="4" max="4" width="28.29"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
